--- a/Л3/16.xlsx
+++ b/Л3/16.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243133C1-E97D-4215-9D70-23AAFC461758}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -185,7 +184,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -362,18 +361,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +431,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="1">
+        <f>ROUNDUP(E2*E1-E3,0)</f>
         <v>99</v>
       </c>
       <c r="J5" s="1" t="s">
